--- a/Jogos_da_Semana_FlashScore_2025-04-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-30.xlsx
@@ -769,19 +769,19 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H3" t="n">
         <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="J3" t="n">
         <v>1.11</v>
       </c>
       <c r="K3" t="n">
-        <v>5.9</v>
+        <v>6.5</v>
       </c>
       <c r="L3" t="n">
         <v>1.5</v>
@@ -790,52 +790,52 @@
         <v>2.5</v>
       </c>
       <c r="N3" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.5</v>
       </c>
       <c r="P3" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.27</v>
+        <v>2.38</v>
       </c>
       <c r="R3" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="S3" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="T3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U3" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="V3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W3" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="X3" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="Y3" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="Z3" t="n">
-        <v>5.9</v>
+        <v>6.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AB3" t="n">
         <v>19</v>
       </c>
       <c r="AC3" t="n">
-        <v>150</v>
+        <v>67</v>
       </c>
       <c r="AD3" t="n">
         <v>1250</v>
@@ -844,19 +844,19 @@
         <v>6.5</v>
       </c>
       <c r="AF3" t="n">
-        <v>11.75</v>
+        <v>10</v>
       </c>
       <c r="AG3" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH3" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AI3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ3" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4">
@@ -891,92 +891,94 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H4" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I4" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="J4" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L4" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="M4" t="n">
-        <v>2.45</v>
+        <v>2.63</v>
       </c>
       <c r="N4" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="O4" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P4" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="R4" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S4" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T4" t="n">
-        <v>7.6</v>
+        <v>8.5</v>
       </c>
       <c r="U4" t="n">
         <v>17</v>
       </c>
       <c r="V4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="W4" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="X4" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="Y4" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="Z4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE4" t="n">
         <v>6</v>
       </c>
-      <c r="AA4" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>150</v>
-      </c>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="n">
-        <v>5.7</v>
-      </c>
       <c r="AF4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG4" t="n">
         <v>9.5</v>
       </c>
-      <c r="AG4" t="n">
-        <v>10.25</v>
-      </c>
       <c r="AH4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI4" t="n">
         <v>21</v>
       </c>
-      <c r="AI4" t="n">
-        <v>24</v>
-      </c>
       <c r="AJ4" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5">
@@ -1011,90 +1013,90 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.12</v>
+        <v>1.72</v>
       </c>
       <c r="H5" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="I5" t="n">
-        <v>3.3</v>
+        <v>4.6</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="M5" t="n">
-        <v>2.85</v>
+        <v>2.92</v>
       </c>
       <c r="N5" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O5" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="P5" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.42</v>
+        <v>2.47</v>
       </c>
       <c r="R5" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="S5" t="n">
-        <v>1.87</v>
+        <v>1.78</v>
       </c>
       <c r="T5" t="n">
-        <v>7.3</v>
+        <v>6.4</v>
       </c>
       <c r="U5" t="n">
-        <v>10.25</v>
+        <v>7.7</v>
       </c>
       <c r="V5" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="W5" t="n">
-        <v>20</v>
+        <v>13.5</v>
       </c>
       <c r="X5" t="n">
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y5" t="n">
         <v>28</v>
       </c>
       <c r="Z5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>6.2</v>
+        <v>6.7</v>
       </c>
       <c r="AB5" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AC5" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AD5" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AE5" t="n">
-        <v>9.25</v>
+        <v>12</v>
       </c>
       <c r="AF5" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AG5" t="n">
-        <v>11.5</v>
+        <v>15</v>
       </c>
       <c r="AH5" t="n">
+        <v>80</v>
+      </c>
+      <c r="AI5" t="n">
         <v>45</v>
       </c>
-      <c r="AI5" t="n">
-        <v>30</v>
-      </c>
       <c r="AJ5" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
@@ -1256,28 +1258,28 @@
         <v>7.2</v>
       </c>
       <c r="H8" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I8" t="n">
         <v>1.5</v>
       </c>
       <c r="J8" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="K8" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="L8" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M8" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="N8" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="O8" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P8" t="n">
         <v>1.44</v>
@@ -1301,7 +1303,7 @@
         <v>23</v>
       </c>
       <c r="W8" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="X8" t="n">
         <v>100</v>
@@ -1310,10 +1312,10 @@
         <v>100</v>
       </c>
       <c r="Z8" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AA8" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AB8" t="n">
         <v>23</v>
@@ -1334,7 +1336,7 @@
         <v>8.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AI8" t="n">
         <v>14</v>
@@ -1375,31 +1377,31 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>7.3</v>
+        <v>7.8</v>
       </c>
       <c r="H9" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I9" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="J9" t="n">
         <v>1.07</v>
       </c>
       <c r="K9" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="L9" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M9" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="N9" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="O9" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="P9" t="n">
         <v>1.39</v>
@@ -1408,55 +1410,55 @@
         <v>2.77</v>
       </c>
       <c r="R9" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="S9" t="n">
         <v>1.65</v>
       </c>
       <c r="T9" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="U9" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="V9" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="W9" t="n">
         <v>200</v>
       </c>
       <c r="X9" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="Y9" t="n">
         <v>90</v>
       </c>
       <c r="Z9" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AA9" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AB9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC9" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AD9" t="n">
         <v>900</v>
       </c>
       <c r="AE9" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AF9" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="AG9" t="n">
         <v>8.25</v>
       </c>
       <c r="AH9" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AI9" t="n">
         <v>13</v>
@@ -1497,31 +1499,31 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H10" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I10" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="J10" t="n">
         <v>1.04</v>
       </c>
       <c r="K10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L10" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M10" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N10" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="O10" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="P10" t="n">
         <v>1.36</v>
@@ -1530,10 +1532,10 @@
         <v>3</v>
       </c>
       <c r="R10" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S10" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T10" t="n">
         <v>11</v>
@@ -1554,7 +1556,7 @@
         <v>34</v>
       </c>
       <c r="Z10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA10" t="n">
         <v>7</v>
@@ -1619,13 +1621,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H11" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I11" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J11" t="n">
         <v>1.03</v>
@@ -1640,10 +1642,10 @@
         <v>4.5</v>
       </c>
       <c r="N11" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="O11" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="P11" t="n">
         <v>1.3</v>
@@ -1667,7 +1669,7 @@
         <v>9</v>
       </c>
       <c r="W11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X11" t="n">
         <v>15</v>
@@ -1741,86 +1743,90 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.65</v>
+        <v>2.82</v>
       </c>
       <c r="H12" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="I12" t="n">
-        <v>1.87</v>
+        <v>2.25</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="M12" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N12" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="O12" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
+        <v>1.7</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.4</v>
+      </c>
       <c r="R12" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="S12" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="T12" t="n">
-        <v>8.4</v>
+        <v>7.3</v>
       </c>
       <c r="U12" t="n">
-        <v>16</v>
+        <v>11.75</v>
       </c>
       <c r="V12" t="n">
-        <v>10</v>
+        <v>8.75</v>
       </c>
       <c r="W12" t="n">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="X12" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="Y12" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="Z12" t="n">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AA12" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AC12" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AD12" t="n">
-        <v>101</v>
+        <v>350</v>
       </c>
       <c r="AE12" t="n">
-        <v>5.6</v>
+        <v>6.6</v>
       </c>
       <c r="AF12" t="n">
-        <v>7</v>
+        <v>9.25</v>
       </c>
       <c r="AG12" t="n">
-        <v>6.8</v>
+        <v>7.7</v>
       </c>
       <c r="AH12" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AI12" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AJ12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
@@ -1855,94 +1861,94 @@
         </is>
       </c>
       <c r="G13" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="H13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I13" t="n">
+        <v>9</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K13" t="n">
+        <v>21</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="M13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="N13" t="n">
         <v>1.4</v>
       </c>
-      <c r="H13" t="n">
-        <v>5</v>
-      </c>
-      <c r="I13" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K13" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="M13" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="N13" t="n">
-        <v>1.45</v>
-      </c>
       <c r="O13" t="n">
-        <v>2.65</v>
+        <v>2.88</v>
       </c>
       <c r="P13" t="n">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="R13" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="S13" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="T13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U13" t="n">
-        <v>8.75</v>
+        <v>8</v>
       </c>
       <c r="V13" t="n">
         <v>9</v>
       </c>
       <c r="W13" t="n">
-        <v>10.75</v>
+        <v>9</v>
       </c>
       <c r="X13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z13" t="n">
-        <v>10.75</v>
+        <v>21</v>
       </c>
       <c r="AA13" t="n">
-        <v>10.75</v>
+        <v>12</v>
       </c>
       <c r="AB13" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AC13" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AD13" t="n">
-        <v>400</v>
+        <v>201</v>
       </c>
       <c r="AE13" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AF13" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG13" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AH13" t="n">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="AI13" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="AJ13" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14">
@@ -2220,36 +2226,92 @@
           <t>Al Jandal</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
+      <c r="G16" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.8</v>
+      </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="inlineStr"/>
-      <c r="AC16" t="inlineStr"/>
-      <c r="AD16" t="inlineStr"/>
-      <c r="AE16" t="inlineStr"/>
-      <c r="AF16" t="inlineStr"/>
-      <c r="AG16" t="inlineStr"/>
-      <c r="AH16" t="inlineStr"/>
-      <c r="AI16" t="inlineStr"/>
-      <c r="AJ16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="T16" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="U16" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="V16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W16" t="n">
+        <v>27</v>
+      </c>
+      <c r="X16" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>70</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>600</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>35</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2282,36 +2344,88 @@
           <t>Al Safa</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="G17" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I17" t="n">
+        <v>5</v>
+      </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.82</v>
+      </c>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="inlineStr"/>
-      <c r="AB17" t="inlineStr"/>
-      <c r="AC17" t="inlineStr"/>
-      <c r="AD17" t="inlineStr"/>
-      <c r="AE17" t="inlineStr"/>
-      <c r="AF17" t="inlineStr"/>
-      <c r="AG17" t="inlineStr"/>
-      <c r="AH17" t="inlineStr"/>
-      <c r="AI17" t="inlineStr"/>
-      <c r="AJ17" t="inlineStr"/>
+      <c r="R17" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="T17" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="U17" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="V17" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="W17" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="X17" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>80</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>700</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>90</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2344,36 +2458,92 @@
           <t>Al Bukiryah</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
+      <c r="G18" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.95</v>
+      </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="inlineStr"/>
-      <c r="AB18" t="inlineStr"/>
-      <c r="AC18" t="inlineStr"/>
-      <c r="AD18" t="inlineStr"/>
-      <c r="AE18" t="inlineStr"/>
-      <c r="AF18" t="inlineStr"/>
-      <c r="AG18" t="inlineStr"/>
-      <c r="AH18" t="inlineStr"/>
-      <c r="AI18" t="inlineStr"/>
-      <c r="AJ18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="T18" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="U18" t="n">
+        <v>11</v>
+      </c>
+      <c r="V18" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="W18" t="n">
+        <v>24</v>
+      </c>
+      <c r="X18" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>70</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>600</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>37</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>27</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2513,13 +2683,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="H20" t="n">
         <v>3.3</v>
       </c>
       <c r="I20" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="J20" t="n">
         <v>1.05</v>
@@ -2531,7 +2701,7 @@
         <v>1.26</v>
       </c>
       <c r="M20" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="N20" t="n">
         <v>1.78</v>
@@ -2543,7 +2713,7 @@
         <v>1.4</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="R20" t="n">
         <v>1.62</v>
@@ -2555,19 +2725,19 @@
         <v>10.5</v>
       </c>
       <c r="U20" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="V20" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="W20" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="X20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Y20" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z20" t="n">
         <v>7.6</v>
@@ -2585,22 +2755,22 @@
         <v>350</v>
       </c>
       <c r="AE20" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AF20" t="n">
         <v>11.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI20" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AJ20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21">
@@ -2638,10 +2808,10 @@
         <v>1.1</v>
       </c>
       <c r="H21" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="I21" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -2649,58 +2819,58 @@
         <v>1.07</v>
       </c>
       <c r="M21" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="N21" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="O21" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="P21" t="n">
         <v>1.16</v>
       </c>
       <c r="Q21" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="R21" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="S21" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="T21" t="n">
         <v>13.5</v>
       </c>
       <c r="U21" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="V21" t="n">
         <v>11.75</v>
       </c>
       <c r="W21" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X21" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="Y21" t="n">
         <v>27</v>
       </c>
       <c r="Z21" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AB21" t="n">
         <v>32</v>
       </c>
       <c r="AC21" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AD21" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AE21" t="n">
         <v>100</v>
@@ -2709,16 +2879,16 @@
         <v>350</v>
       </c>
       <c r="AG21" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AH21" t="n">
         <v>600</v>
       </c>
       <c r="AI21" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="AJ21" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22">
@@ -2756,7 +2926,7 @@
         <v>3.35</v>
       </c>
       <c r="H22" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I22" t="n">
         <v>2.02</v>
@@ -2765,37 +2935,37 @@
         <v>1.05</v>
       </c>
       <c r="K22" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="L22" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="M22" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N22" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O22" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="P22" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.8</v>
+        <v>2.95</v>
       </c>
       <c r="R22" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S22" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="T22" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="U22" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="V22" t="n">
         <v>11.25</v>
@@ -2804,28 +2974,28 @@
         <v>45</v>
       </c>
       <c r="X22" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y22" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Z22" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AA22" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AB22" t="n">
         <v>12.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AD22" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AE22" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AF22" t="n">
         <v>10.5</v>
@@ -2834,13 +3004,13 @@
         <v>8.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AJ22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23">
@@ -2875,13 +3045,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H23" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I23" t="n">
-        <v>4.65</v>
+        <v>4.85</v>
       </c>
       <c r="J23" t="n">
         <v>1.03</v>
@@ -2902,19 +3072,19 @@
         <v>2.5</v>
       </c>
       <c r="P23" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="Q23" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="R23" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S23" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="T23" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="U23" t="n">
         <v>9.75</v>
@@ -2926,10 +3096,10 @@
         <v>13.5</v>
       </c>
       <c r="X23" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="Y23" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Z23" t="n">
         <v>9.25</v>
@@ -2938,31 +3108,31 @@
         <v>8.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC23" t="n">
         <v>40</v>
       </c>
       <c r="AD23" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AE23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF23" t="n">
         <v>35</v>
       </c>
       <c r="AG23" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI23" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AJ23" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24">

--- a/Jogos_da_Semana_FlashScore_2025-04-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ25"/>
+  <dimension ref="A1:AJ26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,67 +647,67 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="J2" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L2" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M2" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N2" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="O2" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="P2" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R2" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S2" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="T2" t="n">
         <v>8.5</v>
       </c>
       <c r="U2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W2" t="n">
+        <v>34</v>
+      </c>
+      <c r="X2" t="n">
         <v>29</v>
       </c>
-      <c r="X2" t="n">
-        <v>23</v>
-      </c>
       <c r="Y2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB2" t="n">
         <v>15</v>
@@ -716,22 +716,22 @@
         <v>51</v>
       </c>
       <c r="AD2" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AG2" t="n">
         <v>10</v>
       </c>
       <c r="AH2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ2" t="n">
         <v>34</v>
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H3" t="n">
         <v>3</v>
@@ -808,7 +808,7 @@
         <v>1.67</v>
       </c>
       <c r="T3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U3" t="n">
         <v>15</v>
@@ -832,7 +832,7 @@
         <v>6</v>
       </c>
       <c r="AB3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC3" t="n">
         <v>67</v>
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="H4" t="n">
         <v>3.25</v>
       </c>
       <c r="I4" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
         <v>1.1</v>
@@ -924,28 +924,28 @@
         <v>2.38</v>
       </c>
       <c r="R4" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S4" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T4" t="n">
         <v>8.5</v>
       </c>
       <c r="U4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="W4" t="n">
         <v>41</v>
       </c>
       <c r="X4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Y4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z4" t="n">
         <v>7</v>
@@ -954,19 +954,19 @@
         <v>6.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD4" t="n">
         <v>101</v>
       </c>
       <c r="AE4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG4" t="n">
         <v>9.5</v>
@@ -975,7 +975,7 @@
         <v>17</v>
       </c>
       <c r="AI4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ4" t="n">
         <v>41</v>
@@ -1013,90 +1013,90 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>3.45</v>
+        <v>3.15</v>
       </c>
       <c r="I5" t="n">
-        <v>4.6</v>
+        <v>3.65</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="M5" t="n">
-        <v>2.92</v>
+        <v>2.77</v>
       </c>
       <c r="N5" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="O5" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="P5" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.47</v>
+        <v>2.37</v>
       </c>
       <c r="R5" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S5" t="n">
         <v>1.82</v>
       </c>
-      <c r="S5" t="n">
-        <v>1.78</v>
-      </c>
       <c r="T5" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="U5" t="n">
-        <v>7.7</v>
+        <v>9.25</v>
       </c>
       <c r="V5" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="W5" t="n">
-        <v>13.5</v>
+        <v>18.5</v>
       </c>
       <c r="X5" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Z5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>75</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>600</v>
+      </c>
+      <c r="AE5" t="n">
         <v>9.5</v>
       </c>
-      <c r="AA5" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>80</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>700</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>12</v>
-      </c>
       <c r="AF5" t="n">
-        <v>26</v>
+        <v>19.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="AI5" t="n">
+        <v>37</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>45</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>50</v>
       </c>
     </row>
     <row r="6">
@@ -1255,13 +1255,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="H8" t="n">
         <v>3.65</v>
       </c>
       <c r="I8" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="J8" t="n">
         <v>1.09</v>
@@ -1270,10 +1270,10 @@
         <v>6.3</v>
       </c>
       <c r="L8" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M8" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="N8" t="n">
         <v>2.15</v>
@@ -1282,10 +1282,10 @@
         <v>1.62</v>
       </c>
       <c r="P8" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="R8" t="n">
         <v>2.25</v>
@@ -1294,28 +1294,28 @@
         <v>1.57</v>
       </c>
       <c r="T8" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="U8" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="V8" t="n">
         <v>23</v>
       </c>
       <c r="W8" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="X8" t="n">
         <v>100</v>
       </c>
       <c r="Y8" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="Z8" t="n">
         <v>6.3</v>
       </c>
       <c r="AA8" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AB8" t="n">
         <v>23</v>
@@ -1327,10 +1327,10 @@
         <v>101</v>
       </c>
       <c r="AE8" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AG8" t="n">
         <v>8.5</v>
@@ -1499,19 +1499,19 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H10" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I10" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="J10" t="n">
         <v>1.04</v>
       </c>
       <c r="K10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L10" t="n">
         <v>1.29</v>
@@ -1556,7 +1556,7 @@
         <v>34</v>
       </c>
       <c r="Z10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA10" t="n">
         <v>7</v>
@@ -1574,7 +1574,7 @@
         <v>7.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AG10" t="n">
         <v>8.5</v>
@@ -1861,13 +1861,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="H13" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="I13" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="J13" t="n">
         <v>1.02</v>
@@ -1894,10 +1894,10 @@
         <v>4</v>
       </c>
       <c r="R13" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S13" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T13" t="n">
         <v>10</v>
@@ -1924,7 +1924,7 @@
         <v>12</v>
       </c>
       <c r="AB13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC13" t="n">
         <v>51</v>
@@ -1933,13 +1933,13 @@
         <v>201</v>
       </c>
       <c r="AE13" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH13" t="n">
         <v>101</v>
@@ -1948,13 +1948,13 @@
         <v>51</v>
       </c>
       <c r="AJ13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>j7YFfJ4F</t>
+          <t>neZI2SS6</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1964,119 +1964,119 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 2</t>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Steaua Bucuresti</t>
+          <t>Benfica B</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Csikszereda M. Ciuc</t>
+          <t>Mafra</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.22</v>
+        <v>1.82</v>
       </c>
       <c r="H14" t="n">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="I14" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="J14" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K14" t="n">
-        <v>6.8</v>
+        <v>11</v>
       </c>
       <c r="L14" t="n">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="M14" t="n">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="N14" t="n">
-        <v>2.12</v>
+        <v>1.9</v>
       </c>
       <c r="O14" t="n">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="P14" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="R14" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="S14" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="T14" t="n">
-        <v>6.9</v>
+        <v>7.5</v>
       </c>
       <c r="U14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W14" t="n">
+        <v>17</v>
+      </c>
+      <c r="X14" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z14" t="n">
         <v>11</v>
       </c>
-      <c r="V14" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="W14" t="n">
-        <v>24</v>
-      </c>
-      <c r="X14" t="n">
+      <c r="AA14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>201</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF14" t="n">
         <v>21</v>
       </c>
-      <c r="Y14" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>90</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>800</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>18</v>
-      </c>
       <c r="AG14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH14" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AI14" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AJ14" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>baG8duz3</t>
+          <t>j7YFfJ4F</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2086,7 +2086,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2096,100 +2096,100 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>CSM Resita</t>
+          <t>Steaua Bucuresti</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>FC Voluntari</t>
+          <t>Csikszereda M. Ciuc</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.75</v>
+        <v>2.22</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="I15" t="n">
-        <v>2.67</v>
+        <v>3.3</v>
       </c>
       <c r="J15" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="K15" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="L15" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="M15" t="n">
-        <v>2.57</v>
+        <v>2.9</v>
       </c>
       <c r="N15" t="n">
-        <v>2.4</v>
+        <v>2.12</v>
       </c>
       <c r="O15" t="n">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="P15" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.32</v>
+        <v>2.5</v>
       </c>
       <c r="R15" t="n">
-        <v>1.98</v>
+        <v>1.83</v>
       </c>
       <c r="S15" t="n">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="T15" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="U15" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="V15" t="n">
-        <v>11.25</v>
+        <v>9.5</v>
       </c>
       <c r="W15" t="n">
+        <v>24</v>
+      </c>
+      <c r="X15" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y15" t="n">
         <v>35</v>
       </c>
-      <c r="X15" t="n">
-        <v>30</v>
-      </c>
-      <c r="Y15" t="n">
+      <c r="Z15" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>90</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>800</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH15" t="n">
         <v>50</v>
       </c>
-      <c r="Z15" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>110</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>101</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH15" t="n">
+      <c r="AI15" t="n">
         <v>32</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>29</v>
       </c>
       <c r="AJ15" t="n">
         <v>45</v>
@@ -2198,7 +2198,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>lAhaNJuB</t>
+          <t>baG8duz3</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2208,115 +2208,119 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - DIVISION 1</t>
+          <t>ROMANIA - LIGA 2</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Al Jubail</t>
+          <t>CSM Resita</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Al Jandal</t>
+          <t>FC Voluntari</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="H16" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+        <v>2.67</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="K16" t="n">
+        <v>6</v>
+      </c>
       <c r="L16" t="n">
-        <v>1.34</v>
+        <v>1.47</v>
       </c>
       <c r="M16" t="n">
-        <v>2.75</v>
+        <v>2.57</v>
       </c>
       <c r="N16" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="O16" t="n">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="P16" t="n">
-        <v>1.45</v>
+        <v>1.57</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.37</v>
+        <v>2.32</v>
       </c>
       <c r="R16" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S16" t="n">
         <v>1.75</v>
       </c>
-      <c r="S16" t="n">
-        <v>1.85</v>
-      </c>
       <c r="T16" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="U16" t="n">
-        <v>11.75</v>
+        <v>13.5</v>
       </c>
       <c r="V16" t="n">
-        <v>9.5</v>
+        <v>11.25</v>
       </c>
       <c r="W16" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="X16" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Y16" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>110</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH16" t="n">
         <v>32</v>
       </c>
-      <c r="Z16" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>70</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>600</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>35</v>
-      </c>
       <c r="AI16" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AJ16" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>rBAX4BPq</t>
+          <t>lAhaNJuB</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2326,7 +2330,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>13:10</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2336,101 +2340,105 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Al Zulfi</t>
+          <t>Al Jubail</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Al Safa</t>
+          <t>Al Jandal</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.6</v>
+        <v>2.45</v>
       </c>
       <c r="H17" t="n">
-        <v>3.8</v>
+        <v>3.05</v>
       </c>
       <c r="I17" t="n">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>1.26</v>
+        <v>1.34</v>
       </c>
       <c r="M17" t="n">
-        <v>3.15</v>
+        <v>2.75</v>
       </c>
       <c r="N17" t="n">
-        <v>1.78</v>
+        <v>2</v>
       </c>
       <c r="O17" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
+        <v>1.65</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.37</v>
+      </c>
       <c r="R17" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="S17" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="T17" t="n">
-        <v>6.7</v>
+        <v>7.6</v>
       </c>
       <c r="U17" t="n">
-        <v>7.2</v>
+        <v>11.75</v>
       </c>
       <c r="V17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W17" t="n">
+        <v>27</v>
+      </c>
+      <c r="X17" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z17" t="n">
         <v>8.25</v>
       </c>
-      <c r="W17" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="X17" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>10.75</v>
-      </c>
       <c r="AA17" t="n">
-        <v>7.5</v>
+        <v>5.9</v>
       </c>
       <c r="AB17" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AC17" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AD17" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AE17" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AF17" t="n">
         <v>14</v>
       </c>
-      <c r="AF17" t="n">
-        <v>30</v>
-      </c>
       <c r="AG17" t="n">
-        <v>16.5</v>
+        <v>10.25</v>
       </c>
       <c r="AH17" t="n">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="AI17" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="AJ17" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>GO8u3kfd</t>
+          <t>rBAX4BPq</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2440,7 +2448,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>13:10</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -2450,105 +2458,101 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Al Najma</t>
+          <t>Al Zulfi</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Al Bukiryah</t>
+          <t>Al Safa</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.32</v>
+        <v>1.6</v>
       </c>
       <c r="H18" t="n">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="I18" t="n">
-        <v>2.95</v>
+        <v>5</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
-        <v>1.34</v>
+        <v>1.26</v>
       </c>
       <c r="M18" t="n">
-        <v>2.77</v>
+        <v>3.15</v>
       </c>
       <c r="N18" t="n">
-        <v>1.98</v>
+        <v>1.78</v>
       </c>
       <c r="O18" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.4</v>
-      </c>
+        <v>1.82</v>
+      </c>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
       <c r="R18" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="S18" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="T18" t="n">
-        <v>7.3</v>
+        <v>6.7</v>
       </c>
       <c r="U18" t="n">
-        <v>11</v>
+        <v>7.2</v>
       </c>
       <c r="V18" t="n">
-        <v>9.25</v>
+        <v>8.25</v>
       </c>
       <c r="W18" t="n">
-        <v>24</v>
+        <v>11.5</v>
       </c>
       <c r="X18" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="Y18" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="Z18" t="n">
-        <v>8.5</v>
+        <v>10.75</v>
       </c>
       <c r="AA18" t="n">
-        <v>6.1</v>
+        <v>7.5</v>
       </c>
       <c r="AB18" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="AC18" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AD18" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AE18" t="n">
-        <v>8.5</v>
+        <v>14</v>
       </c>
       <c r="AF18" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="AG18" t="n">
-        <v>10.75</v>
+        <v>16.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="AI18" t="n">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="AJ18" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IyqHhns3</t>
+          <t>GO8u3kfd</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2558,103 +2562,115 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>08:45</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>SINGAPORE - PREMIER LEAGUE</t>
+          <t>SAUDI ARABIA - DIVISION 1</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Lion City</t>
+          <t>Al Najma</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Young Lions</t>
+          <t>Al Bukiryah</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.16</v>
+        <v>2.32</v>
       </c>
       <c r="H19" t="n">
-        <v>6.7</v>
+        <v>3.1</v>
       </c>
       <c r="I19" t="n">
-        <v>13</v>
+        <v>2.95</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.4</v>
+      </c>
       <c r="R19" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="S19" t="n">
-        <v>2.02</v>
+        <v>1.85</v>
       </c>
       <c r="T19" t="n">
-        <v>15</v>
+        <v>7.3</v>
       </c>
       <c r="U19" t="n">
-        <v>9.75</v>
+        <v>11</v>
       </c>
       <c r="V19" t="n">
-        <v>10.75</v>
+        <v>9.25</v>
       </c>
       <c r="W19" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="X19" t="n">
-        <v>9.75</v>
+        <v>20</v>
       </c>
       <c r="Y19" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="Z19" t="n">
-        <v>29</v>
+        <v>8.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>16.5</v>
+        <v>6.1</v>
       </c>
       <c r="AB19" t="n">
-        <v>23</v>
+        <v>14.5</v>
       </c>
       <c r="AC19" t="n">
         <v>70</v>
       </c>
       <c r="AD19" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="AE19" t="n">
-        <v>60</v>
+        <v>8.5</v>
       </c>
       <c r="AF19" t="n">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="AG19" t="n">
-        <v>45</v>
+        <v>10.75</v>
       </c>
       <c r="AH19" t="n">
-        <v>600</v>
+        <v>37</v>
       </c>
       <c r="AI19" t="n">
-        <v>175</v>
+        <v>27</v>
       </c>
       <c r="AJ19" t="n">
-        <v>90</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>K4iWPJsQ</t>
+          <t>IyqHhns3</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2664,119 +2680,103 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>08:45</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>SLOVENIA - PRVA LIGA</t>
+          <t>SINGAPORE - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Koper</t>
+          <t>Lion City</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Celje</t>
+          <t>Young Lions</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.25</v>
+        <v>1.16</v>
       </c>
       <c r="H20" t="n">
-        <v>3.3</v>
+        <v>6.7</v>
       </c>
       <c r="I20" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K20" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M20" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="N20" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2.75</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
         <v>1.62</v>
       </c>
       <c r="S20" t="n">
-        <v>2.15</v>
+        <v>2.02</v>
       </c>
       <c r="T20" t="n">
-        <v>10.5</v>
+        <v>15</v>
       </c>
       <c r="U20" t="n">
-        <v>18</v>
+        <v>9.75</v>
       </c>
       <c r="V20" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="W20" t="n">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="X20" t="n">
-        <v>27</v>
+        <v>9.75</v>
       </c>
       <c r="Y20" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Z20" t="n">
-        <v>7.6</v>
+        <v>29</v>
       </c>
       <c r="AA20" t="n">
-        <v>6.4</v>
+        <v>16.5</v>
       </c>
       <c r="AB20" t="n">
-        <v>12.5</v>
+        <v>23</v>
       </c>
       <c r="AC20" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="AD20" t="n">
         <v>350</v>
       </c>
       <c r="AE20" t="n">
-        <v>8.75</v>
+        <v>60</v>
       </c>
       <c r="AF20" t="n">
-        <v>11.5</v>
+        <v>150</v>
       </c>
       <c r="AG20" t="n">
-        <v>8.5</v>
+        <v>45</v>
       </c>
       <c r="AH20" t="n">
-        <v>21</v>
+        <v>600</v>
       </c>
       <c r="AI20" t="n">
-        <v>16</v>
+        <v>175</v>
       </c>
       <c r="AJ20" t="n">
-        <v>23</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>fB5PoZGL</t>
+          <t>K4iWPJsQ</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2786,115 +2786,119 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>THAILAND - THAI LEAGUE 1</t>
+          <t>SLOVENIA - PRVA LIGA</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Buriram</t>
+          <t>Koper</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Nong Bua Pitchaya</t>
+          <t>Celje</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.1</v>
+        <v>3.25</v>
       </c>
       <c r="H21" t="n">
-        <v>7.9</v>
+        <v>3.3</v>
       </c>
       <c r="I21" t="n">
-        <v>22</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>2.15</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K21" t="n">
+        <v>7.6</v>
+      </c>
       <c r="L21" t="n">
-        <v>1.07</v>
+        <v>1.26</v>
       </c>
       <c r="M21" t="n">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="N21" t="n">
-        <v>1.23</v>
+        <v>1.78</v>
       </c>
       <c r="O21" t="n">
-        <v>3.7</v>
+        <v>1.93</v>
       </c>
       <c r="P21" t="n">
-        <v>1.16</v>
+        <v>1.4</v>
       </c>
       <c r="Q21" t="n">
-        <v>4.6</v>
+        <v>2.75</v>
       </c>
       <c r="R21" t="n">
-        <v>1.93</v>
+        <v>1.62</v>
       </c>
       <c r="S21" t="n">
-        <v>1.78</v>
+        <v>2.15</v>
       </c>
       <c r="T21" t="n">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="U21" t="n">
-        <v>8.25</v>
+        <v>18</v>
       </c>
       <c r="V21" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="W21" t="n">
-        <v>7.4</v>
+        <v>45</v>
       </c>
       <c r="X21" t="n">
-        <v>10.5</v>
+        <v>27</v>
       </c>
       <c r="Y21" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="Z21" t="n">
-        <v>32</v>
+        <v>7.6</v>
       </c>
       <c r="AA21" t="n">
-        <v>20</v>
+        <v>6.4</v>
       </c>
       <c r="AB21" t="n">
-        <v>32</v>
+        <v>12.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AD21" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="AE21" t="n">
-        <v>100</v>
+        <v>8.75</v>
       </c>
       <c r="AF21" t="n">
-        <v>350</v>
+        <v>11.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>75</v>
+        <v>8.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>600</v>
+        <v>21</v>
       </c>
       <c r="AI21" t="n">
-        <v>350</v>
+        <v>16</v>
       </c>
       <c r="AJ21" t="n">
-        <v>150</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>WWzMRDPk</t>
+          <t>fB5PoZGL</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2914,109 +2918,105 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Nakhon Pathom</t>
+          <t>Buriram</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Ratchaburi</t>
+          <t>Nong Bua Pitchaya</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.35</v>
+        <v>1.1</v>
       </c>
       <c r="H22" t="n">
-        <v>3.5</v>
+        <v>7.9</v>
       </c>
       <c r="I22" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K22" t="n">
-        <v>8</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="M22" t="n">
+        <v>7</v>
+      </c>
+      <c r="N22" t="n">
         <v>1.23</v>
       </c>
-      <c r="M22" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="N22" t="n">
-        <v>1.7</v>
-      </c>
       <c r="O22" t="n">
-        <v>2.05</v>
+        <v>3.7</v>
       </c>
       <c r="P22" t="n">
-        <v>1.35</v>
+        <v>1.16</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.95</v>
+        <v>4.6</v>
       </c>
       <c r="R22" t="n">
-        <v>1.6</v>
+        <v>1.93</v>
       </c>
       <c r="S22" t="n">
-        <v>2.2</v>
+        <v>1.78</v>
       </c>
       <c r="T22" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="U22" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="V22" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="W22" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="X22" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA22" t="n">
         <v>20</v>
       </c>
-      <c r="V22" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="W22" t="n">
-        <v>45</v>
-      </c>
-      <c r="X22" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>6.9</v>
-      </c>
       <c r="AB22" t="n">
-        <v>12.5</v>
+        <v>32</v>
       </c>
       <c r="AC22" t="n">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="AD22" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="AE22" t="n">
-        <v>8.75</v>
+        <v>100</v>
       </c>
       <c r="AF22" t="n">
-        <v>10.5</v>
+        <v>350</v>
       </c>
       <c r="AG22" t="n">
-        <v>8.5</v>
+        <v>75</v>
       </c>
       <c r="AH22" t="n">
-        <v>18.5</v>
+        <v>600</v>
       </c>
       <c r="AI22" t="n">
-        <v>15</v>
+        <v>350</v>
       </c>
       <c r="AJ22" t="n">
-        <v>22</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>bqCGmen9</t>
+          <t>WWzMRDPk</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3036,109 +3036,109 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Port MTI FC</t>
+          <t>Nakhon Pathom</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Rayong FC</t>
+          <t>Ratchaburi</t>
         </is>
       </c>
       <c r="G23" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K23" t="n">
+        <v>8</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O23" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="R23" t="n">
         <v>1.6</v>
       </c>
-      <c r="H23" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="J23" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K23" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="M23" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="N23" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="O23" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.53</v>
-      </c>
       <c r="S23" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="T23" t="n">
-        <v>10.25</v>
+        <v>12.5</v>
       </c>
       <c r="U23" t="n">
-        <v>9.75</v>
+        <v>20</v>
       </c>
       <c r="V23" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="W23" t="n">
+        <v>45</v>
+      </c>
+      <c r="X23" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z23" t="n">
         <v>8</v>
       </c>
-      <c r="W23" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="X23" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>9.25</v>
-      </c>
       <c r="AA23" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>45</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG23" t="n">
         <v>8.5</v>
       </c>
-      <c r="AB23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>40</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>250</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>35</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AH23" t="n">
-        <v>90</v>
+        <v>18.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="AJ23" t="n">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>U5FunrB4</t>
+          <t>bqCGmen9</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3158,109 +3158,109 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Prachuap</t>
+          <t>Port MTI FC</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Bangkok Utd</t>
+          <t>Rayong FC</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>4.3</v>
+        <v>1.6</v>
       </c>
       <c r="H24" t="n">
-        <v>3.65</v>
+        <v>4.1</v>
       </c>
       <c r="I24" t="n">
-        <v>1.75</v>
+        <v>4.85</v>
       </c>
       <c r="J24" t="n">
         <v>1.03</v>
       </c>
       <c r="K24" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="L24" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="M24" t="n">
-        <v>4.45</v>
+        <v>4.7</v>
       </c>
       <c r="N24" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="O24" t="n">
-        <v>2.37</v>
+        <v>2.5</v>
       </c>
       <c r="P24" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="Q24" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="R24" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S24" t="n">
-        <v>2.42</v>
+        <v>2.35</v>
       </c>
       <c r="T24" t="n">
-        <v>17</v>
+        <v>10.25</v>
       </c>
       <c r="U24" t="n">
-        <v>30</v>
+        <v>9.75</v>
       </c>
       <c r="V24" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="W24" t="n">
-        <v>75</v>
+        <v>13.5</v>
       </c>
       <c r="X24" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>250</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF24" t="n">
         <v>35</v>
       </c>
-      <c r="Y24" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>37</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>200</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>10.75</v>
-      </c>
       <c r="AG24" t="n">
-        <v>8</v>
+        <v>15.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="AI24" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="AJ24" t="n">
-        <v>17.5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>fX0jLsFj</t>
+          <t>U5FunrB4</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3270,108 +3270,230 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>THAILAND - THAI LEAGUE 1</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Inhulets</t>
+          <t>Prachuap</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>FK Zorya Luhansk</t>
+          <t>Bangkok Utd</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="H25" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="I25" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>1.72</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K25" t="n">
+        <v>9</v>
+      </c>
       <c r="L25" t="n">
-        <v>1.39</v>
+        <v>1.17</v>
       </c>
       <c r="M25" t="n">
-        <v>2.57</v>
+        <v>4.45</v>
       </c>
       <c r="N25" t="n">
-        <v>2.12</v>
+        <v>1.52</v>
       </c>
       <c r="O25" t="n">
-        <v>1.57</v>
+        <v>2.37</v>
       </c>
       <c r="P25" t="n">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.37</v>
+        <v>3.25</v>
       </c>
       <c r="R25" t="n">
-        <v>1.88</v>
+        <v>1.5</v>
       </c>
       <c r="S25" t="n">
-        <v>1.72</v>
+        <v>2.4</v>
       </c>
       <c r="T25" t="n">
-        <v>9.25</v>
+        <v>17.5</v>
       </c>
       <c r="U25" t="n">
-        <v>18.5</v>
+        <v>30</v>
       </c>
       <c r="V25" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="W25" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="X25" t="n">
         <v>35</v>
       </c>
       <c r="Y25" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>37</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>200</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>fX0jLsFj</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>30/04/2025</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>09:30</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Inhulets</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>FK Zorya Luhansk</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="N26" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="T26" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="U26" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="W26" t="n">
+        <v>55</v>
+      </c>
+      <c r="X26" t="n">
+        <v>35</v>
+      </c>
+      <c r="Y26" t="n">
         <v>45</v>
       </c>
-      <c r="Z25" t="n">
+      <c r="Z26" t="n">
         <v>7.7</v>
       </c>
-      <c r="AA25" t="n">
+      <c r="AA26" t="n">
         <v>6.1</v>
       </c>
-      <c r="AB25" t="n">
+      <c r="AB26" t="n">
         <v>16</v>
       </c>
-      <c r="AC25" t="n">
+      <c r="AC26" t="n">
         <v>90</v>
       </c>
-      <c r="AD25" t="n">
+      <c r="AD26" t="n">
         <v>800</v>
       </c>
-      <c r="AE25" t="n">
+      <c r="AE26" t="n">
         <v>6.1</v>
       </c>
-      <c r="AF25" t="n">
+      <c r="AF26" t="n">
         <v>9</v>
       </c>
-      <c r="AG25" t="n">
+      <c r="AG26" t="n">
         <v>9</v>
       </c>
-      <c r="AH25" t="n">
+      <c r="AH26" t="n">
         <v>18.5</v>
       </c>
-      <c r="AI25" t="n">
+      <c r="AI26" t="n">
         <v>19</v>
       </c>
-      <c r="AJ25" t="n">
+      <c r="AJ26" t="n">
         <v>35</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2025-04-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-30.xlsx
@@ -1130,36 +1130,96 @@
           <t>Gualaceo</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr"/>
-      <c r="AD6" t="inlineStr"/>
-      <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="inlineStr"/>
-      <c r="AG6" t="inlineStr"/>
-      <c r="AH6" t="inlineStr"/>
-      <c r="AI6" t="inlineStr"/>
-      <c r="AJ6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="T6" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="U6" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="V6" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="W6" t="n">
+        <v>21</v>
+      </c>
+      <c r="X6" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>55</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1511,7 +1571,7 @@
         <v>1.04</v>
       </c>
       <c r="K10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L10" t="n">
         <v>1.29</v>
@@ -1621,13 +1681,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H11" t="n">
         <v>3.6</v>
       </c>
       <c r="I11" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="J11" t="n">
         <v>1.03</v>
@@ -1648,16 +1708,16 @@
         <v>2.25</v>
       </c>
       <c r="P11" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q11" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R11" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S11" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="T11" t="n">
         <v>10</v>
@@ -1669,7 +1729,7 @@
         <v>9</v>
       </c>
       <c r="W11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X11" t="n">
         <v>15</v>
@@ -1687,7 +1747,7 @@
         <v>12</v>
       </c>
       <c r="AC11" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD11" t="n">
         <v>126</v>
@@ -1699,7 +1759,7 @@
         <v>19</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH11" t="n">
         <v>34</v>
@@ -1870,10 +1930,10 @@
         <v>8.5</v>
       </c>
       <c r="J13" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L13" t="n">
         <v>1.11</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-30.xlsx
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="H4" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="J4" t="n">
         <v>1.1</v>
@@ -924,28 +924,28 @@
         <v>2.38</v>
       </c>
       <c r="R4" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S4" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="V4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="W4" t="n">
         <v>41</v>
       </c>
       <c r="X4" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y4" t="n">
         <v>41</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>51</v>
       </c>
       <c r="Z4" t="n">
         <v>7</v>
@@ -954,28 +954,28 @@
         <v>6.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC4" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD4" t="n">
         <v>101</v>
       </c>
       <c r="AE4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AF4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG4" t="n">
         <v>9.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ4" t="n">
         <v>41</v>
@@ -1131,13 +1131,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>2.85</v>
+        <v>2.92</v>
       </c>
       <c r="I6" t="n">
-        <v>3.6</v>
+        <v>4.05</v>
       </c>
       <c r="J6" t="n">
         <v>1.1</v>
@@ -1146,22 +1146,22 @@
         <v>5.8</v>
       </c>
       <c r="L6" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="M6" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="N6" t="n">
-        <v>2.35</v>
+        <v>2.27</v>
       </c>
       <c r="O6" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P6" t="n">
         <v>1.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="R6" t="n">
         <v>1.98</v>
@@ -1170,55 +1170,55 @@
         <v>1.65</v>
       </c>
       <c r="T6" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="U6" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="V6" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="W6" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="X6" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z6" t="n">
         <v>6.4</v>
       </c>
       <c r="AA6" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AB6" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AD6" t="n">
         <v>101</v>
       </c>
       <c r="AE6" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AI6" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AJ6" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7">
@@ -1315,13 +1315,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="H8" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="I8" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="J8" t="n">
         <v>1.09</v>
@@ -1342,16 +1342,16 @@
         <v>1.62</v>
       </c>
       <c r="P8" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="R8" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S8" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="T8" t="n">
         <v>13.5</v>
@@ -1360,25 +1360,25 @@
         <v>40</v>
       </c>
       <c r="V8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="W8" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="X8" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="Y8" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="Z8" t="n">
         <v>6.3</v>
       </c>
       <c r="AA8" t="n">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="AB8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC8" t="n">
         <v>150</v>
@@ -1390,16 +1390,16 @@
         <v>5.2</v>
       </c>
       <c r="AF8" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AG8" t="n">
         <v>8.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AJ8" t="n">
         <v>37</v>
@@ -1437,37 +1437,37 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="H9" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="I9" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="J9" t="n">
         <v>1.07</v>
       </c>
       <c r="K9" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="L9" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M9" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="N9" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="O9" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="P9" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="R9" t="n">
         <v>2.12</v>
@@ -1476,28 +1476,28 @@
         <v>1.65</v>
       </c>
       <c r="T9" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="U9" t="n">
         <v>50</v>
       </c>
       <c r="V9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="W9" t="n">
         <v>200</v>
       </c>
       <c r="X9" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="Y9" t="n">
         <v>90</v>
       </c>
       <c r="Z9" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AA9" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AB9" t="n">
         <v>21</v>
@@ -1509,7 +1509,7 @@
         <v>900</v>
       </c>
       <c r="AE9" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AF9" t="n">
         <v>6</v>
@@ -1518,7 +1518,7 @@
         <v>8.25</v>
       </c>
       <c r="AH9" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AI9" t="n">
         <v>13</v>
@@ -1930,10 +1930,10 @@
         <v>8.5</v>
       </c>
       <c r="J13" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L13" t="n">
         <v>1.11</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-30.xlsx
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H4" t="n">
         <v>3.2</v>
       </c>
       <c r="I4" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J4" t="n">
         <v>1.1</v>
@@ -933,7 +933,7 @@
         <v>8</v>
       </c>
       <c r="U4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V4" t="n">
         <v>13</v>
@@ -951,7 +951,7 @@
         <v>7</v>
       </c>
       <c r="AA4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB4" t="n">
         <v>19</v>
@@ -969,10 +969,10 @@
         <v>9</v>
       </c>
       <c r="AG4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI4" t="n">
         <v>21</v>
@@ -1131,13 +1131,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H6" t="n">
-        <v>2.92</v>
+        <v>3.2</v>
       </c>
       <c r="I6" t="n">
-        <v>4.05</v>
+        <v>5.2</v>
       </c>
       <c r="J6" t="n">
         <v>1.1</v>
@@ -1146,79 +1146,79 @@
         <v>5.8</v>
       </c>
       <c r="L6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P6" t="n">
         <v>1.45</v>
       </c>
-      <c r="M6" t="n">
+      <c r="Q6" t="n">
         <v>2.37</v>
       </c>
-      <c r="N6" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.27</v>
-      </c>
       <c r="R6" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="S6" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="T6" t="n">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="U6" t="n">
+        <v>7</v>
+      </c>
+      <c r="V6" t="n">
         <v>8.5</v>
       </c>
-      <c r="V6" t="n">
-        <v>8.75</v>
-      </c>
       <c r="W6" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="X6" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="Y6" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Z6" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AA6" t="n">
         <v>6.4</v>
       </c>
-      <c r="AA6" t="n">
-        <v>5.8</v>
-      </c>
       <c r="AB6" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AC6" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AD6" t="n">
         <v>101</v>
       </c>
       <c r="AE6" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AF6" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AG6" t="n">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="AH6" t="n">
+        <v>110</v>
+      </c>
+      <c r="AI6" t="n">
         <v>70</v>
       </c>
-      <c r="AI6" t="n">
-        <v>50</v>
-      </c>
       <c r="AJ6" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
@@ -1437,49 +1437,49 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="H9" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="I9" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="J9" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K9" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="L9" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="M9" t="n">
-        <v>3.05</v>
+        <v>2.85</v>
       </c>
       <c r="N9" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="O9" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="P9" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.75</v>
+        <v>2.62</v>
       </c>
       <c r="R9" t="n">
-        <v>2.12</v>
+        <v>2.25</v>
       </c>
       <c r="S9" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="T9" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="U9" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="V9" t="n">
         <v>23</v>
@@ -1488,43 +1488,43 @@
         <v>200</v>
       </c>
       <c r="X9" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="Y9" t="n">
         <v>90</v>
       </c>
       <c r="Z9" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AB9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AC9" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AD9" t="n">
         <v>900</v>
       </c>
       <c r="AE9" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="AF9" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AG9" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AH9" t="n">
         <v>9.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ9" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10">
@@ -1803,13 +1803,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.82</v>
+        <v>2.92</v>
       </c>
       <c r="H12" t="n">
         <v>3.2</v>
       </c>
       <c r="I12" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -1820,7 +1820,7 @@
         <v>3.1</v>
       </c>
       <c r="N12" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="O12" t="n">
         <v>1.7</v>
@@ -1838,22 +1838,22 @@
         <v>1.92</v>
       </c>
       <c r="T12" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="U12" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="V12" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="W12" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="X12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Z12" t="n">
         <v>9</v>
@@ -1871,19 +1871,19 @@
         <v>350</v>
       </c>
       <c r="AE12" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AG12" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AH12" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AJ12" t="n">
         <v>23</v>
@@ -1930,16 +1930,16 @@
         <v>8.5</v>
       </c>
       <c r="J13" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K13" t="n">
         <v>21</v>
       </c>
       <c r="L13" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="M13" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="N13" t="n">
         <v>1.4</v>
@@ -1963,13 +1963,13 @@
         <v>10</v>
       </c>
       <c r="U13" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V13" t="n">
         <v>9</v>
       </c>
       <c r="W13" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X13" t="n">
         <v>10</v>
@@ -2008,7 +2008,7 @@
         <v>51</v>
       </c>
       <c r="AJ13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14">
@@ -2043,7 +2043,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="H14" t="n">
         <v>3.5</v>
@@ -2527,86 +2527,90 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H18" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="M18" t="n">
-        <v>3.15</v>
+        <v>2.82</v>
       </c>
       <c r="N18" t="n">
-        <v>1.78</v>
+        <v>1.93</v>
       </c>
       <c r="O18" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
+        <v>1.7</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.45</v>
+      </c>
       <c r="R18" t="n">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="S18" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="T18" t="n">
-        <v>6.7</v>
+        <v>6.2</v>
       </c>
       <c r="U18" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="V18" t="n">
         <v>8.25</v>
       </c>
       <c r="W18" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="X18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Y18" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Z18" t="n">
-        <v>10.75</v>
+        <v>8.75</v>
       </c>
       <c r="AA18" t="n">
-        <v>7.5</v>
+        <v>6.9</v>
       </c>
       <c r="AB18" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AC18" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>900</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH18" t="n">
         <v>80</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>700</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>30</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>90</v>
       </c>
       <c r="AI18" t="n">
         <v>50</v>
       </c>
       <c r="AJ18" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
@@ -2759,78 +2763,94 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.16</v>
+        <v>1.08</v>
       </c>
       <c r="H20" t="n">
-        <v>6.7</v>
+        <v>11</v>
       </c>
       <c r="I20" t="n">
-        <v>13</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
+        <v>21</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K20" t="n">
+        <v>34</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="M20" t="n">
+        <v>15</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="O20" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>7</v>
+      </c>
       <c r="R20" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="S20" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="T20" t="n">
+        <v>21</v>
+      </c>
+      <c r="U20" t="n">
+        <v>12</v>
+      </c>
+      <c r="V20" t="n">
         <v>15</v>
       </c>
-      <c r="U20" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="V20" t="n">
-        <v>10.75</v>
-      </c>
       <c r="W20" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X20" t="n">
-        <v>9.75</v>
+        <v>11</v>
       </c>
       <c r="Y20" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB20" t="n">
         <v>29</v>
       </c>
-      <c r="AA20" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>23</v>
-      </c>
       <c r="AC20" t="n">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AD20" t="n">
-        <v>350</v>
+        <v>151</v>
       </c>
       <c r="AE20" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="AF20" t="n">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="AG20" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="AH20" t="n">
         <v>600</v>
       </c>
       <c r="AI20" t="n">
-        <v>175</v>
+        <v>101</v>
       </c>
       <c r="AJ20" t="n">
-        <v>90</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21">
@@ -3105,64 +3125,64 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="H23" t="n">
         <v>3.5</v>
       </c>
       <c r="I23" t="n">
-        <v>2.02</v>
+        <v>1.91</v>
       </c>
       <c r="J23" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K23" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="L23" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="M23" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="N23" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="O23" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="P23" t="n">
         <v>1.35</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="R23" t="n">
         <v>1.6</v>
       </c>
       <c r="S23" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="T23" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="U23" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="V23" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="W23" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="X23" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Y23" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Z23" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AA23" t="n">
         <v>6.9</v>
@@ -3180,19 +3200,19 @@
         <v>8.75</v>
       </c>
       <c r="AF23" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AG23" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AH23" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24">

--- a/Jogos_da_Semana_FlashScore_2025-04-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-30.xlsx
@@ -1131,13 +1131,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="H6" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I6" t="n">
-        <v>5.2</v>
+        <v>4.85</v>
       </c>
       <c r="J6" t="n">
         <v>1.1</v>
@@ -1146,40 +1146,40 @@
         <v>5.8</v>
       </c>
       <c r="L6" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M6" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="N6" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="O6" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P6" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="R6" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S6" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="T6" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="U6" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="V6" t="n">
         <v>8.5</v>
       </c>
       <c r="W6" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="X6" t="n">
         <v>16</v>
@@ -1188,37 +1188,37 @@
         <v>35</v>
       </c>
       <c r="Z6" t="n">
-        <v>7.1</v>
+        <v>7.6</v>
       </c>
       <c r="AA6" t="n">
         <v>6.4</v>
       </c>
       <c r="AB6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AC6" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AD6" t="n">
         <v>101</v>
       </c>
       <c r="AE6" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AF6" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AG6" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AH6" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AI6" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AJ6" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
@@ -1252,36 +1252,90 @@
           <t>Chacaritas</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="I7" t="n">
+        <v>6.2</v>
+      </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr"/>
-      <c r="AB7" t="inlineStr"/>
-      <c r="AC7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="T7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U7" t="n">
+        <v>6</v>
+      </c>
+      <c r="V7" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="W7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>37</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>150</v>
+      </c>
       <c r="AD7" t="inlineStr"/>
-      <c r="AE7" t="inlineStr"/>
-      <c r="AF7" t="inlineStr"/>
-      <c r="AG7" t="inlineStr"/>
-      <c r="AH7" t="inlineStr"/>
-      <c r="AI7" t="inlineStr"/>
-      <c r="AJ7" t="inlineStr"/>
+      <c r="AE7" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>37</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>150</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1574,16 +1628,16 @@
         <v>13</v>
       </c>
       <c r="L10" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M10" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N10" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="O10" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="P10" t="n">
         <v>1.36</v>
@@ -1759,7 +1813,7 @@
         <v>19</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH11" t="n">
         <v>34</v>
@@ -1930,13 +1984,13 @@
         <v>8.5</v>
       </c>
       <c r="J13" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K13" t="n">
         <v>21</v>
       </c>
       <c r="L13" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="M13" t="n">
         <v>6</v>
@@ -2165,94 +2219,94 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.22</v>
+        <v>2.27</v>
       </c>
       <c r="H15" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J15" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="K15" t="n">
-        <v>6.8</v>
+        <v>5.9</v>
       </c>
       <c r="L15" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="M15" t="n">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="N15" t="n">
-        <v>2.12</v>
+        <v>2.4</v>
       </c>
       <c r="O15" t="n">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="P15" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="R15" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="S15" t="n">
-        <v>1.87</v>
+        <v>1.72</v>
       </c>
       <c r="T15" t="n">
-        <v>6.9</v>
+        <v>6</v>
       </c>
       <c r="U15" t="n">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="V15" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W15" t="n">
+        <v>25</v>
+      </c>
+      <c r="X15" t="n">
         <v>24</v>
       </c>
-      <c r="X15" t="n">
-        <v>21</v>
-      </c>
       <c r="Y15" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="Z15" t="n">
-        <v>6.8</v>
+        <v>5.9</v>
       </c>
       <c r="AA15" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="AB15" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AC15" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AD15" t="n">
         <v>800</v>
       </c>
       <c r="AE15" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AF15" t="n">
         <v>18</v>
       </c>
       <c r="AG15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH15" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AI15" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AJ15" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16">
@@ -2645,60 +2699,60 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="H19" t="n">
         <v>3.1</v>
       </c>
       <c r="I19" t="n">
-        <v>2.95</v>
+        <v>3.15</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M19" t="n">
-        <v>2.77</v>
+        <v>2.72</v>
       </c>
       <c r="N19" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="O19" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P19" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="R19" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="S19" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="T19" t="n">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="U19" t="n">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="V19" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="W19" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="X19" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Y19" t="n">
         <v>32</v>
       </c>
       <c r="Z19" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AA19" t="n">
         <v>6.1</v>
@@ -2707,28 +2761,28 @@
         <v>14.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AD19" t="n">
         <v>600</v>
       </c>
       <c r="AE19" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG19" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AH19" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ19" t="n">
         <v>37</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>27</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>35</v>
       </c>
     </row>
     <row r="20">
@@ -2763,13 +2817,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="H20" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I20" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="J20" t="n">
         <v>1.01</v>
@@ -2796,40 +2850,40 @@
         <v>7</v>
       </c>
       <c r="R20" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="S20" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T20" t="n">
         <v>21</v>
       </c>
       <c r="U20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V20" t="n">
         <v>15</v>
       </c>
       <c r="W20" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="X20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y20" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="Z20" t="n">
         <v>34</v>
       </c>
       <c r="AA20" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB20" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC20" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD20" t="n">
         <v>151</v>
@@ -2838,7 +2892,7 @@
         <v>67</v>
       </c>
       <c r="AF20" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AG20" t="n">
         <v>51</v>
@@ -2847,10 +2901,10 @@
         <v>600</v>
       </c>
       <c r="AI20" t="n">
+        <v>151</v>
+      </c>
+      <c r="AJ20" t="n">
         <v>101</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>67</v>
       </c>
     </row>
     <row r="21">
@@ -3125,10 +3179,10 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H23" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I23" t="n">
         <v>1.91</v>
@@ -3143,7 +3197,7 @@
         <v>1.22</v>
       </c>
       <c r="M23" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="N23" t="n">
         <v>1.65</v>
@@ -3152,10 +3206,10 @@
         <v>2.1</v>
       </c>
       <c r="P23" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="R23" t="n">
         <v>1.6</v>
@@ -3164,7 +3218,7 @@
         <v>2.22</v>
       </c>
       <c r="T23" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="U23" t="n">
         <v>22</v>
@@ -3173,10 +3227,10 @@
         <v>12</v>
       </c>
       <c r="W23" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="X23" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Y23" t="n">
         <v>30</v>
@@ -3185,7 +3239,7 @@
         <v>8.25</v>
       </c>
       <c r="AA23" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="AB23" t="n">
         <v>12.5</v>
@@ -3206,7 +3260,7 @@
         <v>8.25</v>
       </c>
       <c r="AH23" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI23" t="n">
         <v>14</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-30.xlsx
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="H4" t="n">
         <v>3.2</v>
       </c>
       <c r="I4" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="J4" t="n">
         <v>1.1</v>
@@ -930,7 +930,7 @@
         <v>1.67</v>
       </c>
       <c r="T4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U4" t="n">
         <v>15</v>
@@ -939,7 +939,7 @@
         <v>13</v>
       </c>
       <c r="W4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="X4" t="n">
         <v>34</v>
@@ -966,7 +966,7 @@
         <v>6</v>
       </c>
       <c r="AF4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AG4" t="n">
         <v>10</v>
@@ -1131,13 +1131,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="H6" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="I6" t="n">
-        <v>4.85</v>
+        <v>4.3</v>
       </c>
       <c r="J6" t="n">
         <v>1.1</v>
@@ -1146,55 +1146,55 @@
         <v>5.8</v>
       </c>
       <c r="L6" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="M6" t="n">
-        <v>2.57</v>
+        <v>2.47</v>
       </c>
       <c r="N6" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="O6" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="P6" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="R6" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S6" t="n">
         <v>1.65</v>
       </c>
       <c r="T6" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="U6" t="n">
-        <v>7.1</v>
+        <v>8</v>
       </c>
       <c r="V6" t="n">
         <v>8.5</v>
       </c>
       <c r="W6" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="X6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Y6" t="n">
         <v>35</v>
       </c>
       <c r="Z6" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="AA6" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="AB6" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AC6" t="n">
         <v>110</v>
@@ -1203,22 +1203,22 @@
         <v>101</v>
       </c>
       <c r="AE6" t="n">
-        <v>11.25</v>
+        <v>9.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH6" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AI6" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ6" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7">
@@ -1253,13 +1253,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="H7" t="n">
-        <v>3.95</v>
+        <v>4.05</v>
       </c>
       <c r="I7" t="n">
-        <v>6.2</v>
+        <v>6.7</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -1267,7 +1267,7 @@
         <v>1.33</v>
       </c>
       <c r="M7" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="N7" t="n">
         <v>1.98</v>
@@ -1282,22 +1282,22 @@
         <v>2.6</v>
       </c>
       <c r="R7" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="S7" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="T7" t="n">
         <v>5.5</v>
       </c>
       <c r="U7" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="V7" t="n">
         <v>8.75</v>
       </c>
       <c r="W7" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X7" t="n">
         <v>13.5</v>
@@ -1306,35 +1306,35 @@
         <v>37</v>
       </c>
       <c r="Z7" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AA7" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="AB7" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AC7" t="n">
         <v>150</v>
       </c>
       <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH7" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AI7" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AJ7" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
@@ -1369,82 +1369,82 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="H8" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I8" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="J8" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="K8" t="n">
         <v>6.3</v>
       </c>
       <c r="L8" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M8" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="N8" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="O8" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P8" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R8" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="S8" t="n">
         <v>1.6</v>
       </c>
       <c r="T8" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="U8" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="V8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="W8" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="X8" t="n">
         <v>90</v>
       </c>
       <c r="Y8" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="Z8" t="n">
         <v>6.3</v>
       </c>
       <c r="AA8" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AB8" t="n">
         <v>22</v>
       </c>
       <c r="AC8" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AD8" t="n">
         <v>101</v>
       </c>
       <c r="AE8" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AG8" t="n">
         <v>8.5</v>
@@ -1453,10 +1453,10 @@
         <v>10.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AJ8" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9">
@@ -1491,13 +1491,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="H9" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I9" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="J9" t="n">
         <v>1.08</v>
@@ -1506,22 +1506,22 @@
         <v>6.5</v>
       </c>
       <c r="L9" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M9" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="N9" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="O9" t="n">
         <v>1.65</v>
       </c>
       <c r="P9" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="R9" t="n">
         <v>2.25</v>
@@ -1530,7 +1530,7 @@
         <v>1.57</v>
       </c>
       <c r="T9" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="U9" t="n">
         <v>45</v>
@@ -1563,7 +1563,7 @@
         <v>900</v>
       </c>
       <c r="AE9" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AF9" t="n">
         <v>5.9</v>
@@ -1572,7 +1572,7 @@
         <v>8.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AI9" t="n">
         <v>14</v>
@@ -1613,13 +1613,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="H10" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I10" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="J10" t="n">
         <v>1.04</v>
@@ -1646,19 +1646,19 @@
         <v>3</v>
       </c>
       <c r="R10" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S10" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="V10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W10" t="n">
         <v>41</v>
@@ -1673,7 +1673,7 @@
         <v>12</v>
       </c>
       <c r="AA10" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB10" t="n">
         <v>15</v>
@@ -1694,13 +1694,13 @@
         <v>8.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI10" t="n">
         <v>15</v>
       </c>
       <c r="AJ10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11">
@@ -1996,13 +1996,13 @@
         <v>6</v>
       </c>
       <c r="N13" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="O13" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="P13" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="Q13" t="n">
         <v>4</v>
@@ -2029,7 +2029,7 @@
         <v>10</v>
       </c>
       <c r="Y13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z13" t="n">
         <v>21</v>
@@ -2050,7 +2050,7 @@
         <v>26</v>
       </c>
       <c r="AF13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG13" t="n">
         <v>23</v>
@@ -2124,7 +2124,7 @@
         <v>1.95</v>
       </c>
       <c r="P14" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q14" t="n">
         <v>3</v>
@@ -2341,94 +2341,94 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.75</v>
+        <v>2.62</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="I16" t="n">
-        <v>2.67</v>
+        <v>2.92</v>
       </c>
       <c r="J16" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="K16" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="L16" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="M16" t="n">
-        <v>2.57</v>
+        <v>2.47</v>
       </c>
       <c r="N16" t="n">
-        <v>2.4</v>
+        <v>2.47</v>
       </c>
       <c r="O16" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P16" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="R16" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S16" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="T16" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U16" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="V16" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="W16" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="X16" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y16" t="n">
         <v>50</v>
       </c>
       <c r="Z16" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="AA16" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="AB16" t="n">
         <v>18</v>
       </c>
       <c r="AC16" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AD16" t="n">
         <v>101</v>
       </c>
       <c r="AE16" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="AF16" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>11.75</v>
       </c>
       <c r="AH16" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI16" t="n">
         <v>32</v>
       </c>
-      <c r="AI16" t="n">
-        <v>29</v>
-      </c>
       <c r="AJ16" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17">
@@ -2581,13 +2581,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H18" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I18" t="n">
-        <v>4.7</v>
+        <v>4.85</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -2595,43 +2595,43 @@
         <v>1.33</v>
       </c>
       <c r="M18" t="n">
-        <v>2.82</v>
+        <v>2.77</v>
       </c>
       <c r="N18" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="R18" t="n">
         <v>1.93</v>
       </c>
-      <c r="O18" t="n">
+      <c r="S18" t="n">
         <v>1.7</v>
       </c>
-      <c r="P18" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.72</v>
-      </c>
       <c r="T18" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="U18" t="n">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="V18" t="n">
         <v>8.25</v>
       </c>
       <c r="W18" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="X18" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z18" t="n">
         <v>8.75</v>
@@ -2640,7 +2640,7 @@
         <v>6.9</v>
       </c>
       <c r="AB18" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AC18" t="n">
         <v>100</v>
@@ -2649,19 +2649,19 @@
         <v>900</v>
       </c>
       <c r="AE18" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AF18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG18" t="n">
         <v>16</v>
       </c>
       <c r="AH18" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI18" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ18" t="n">
         <v>60</v>
@@ -3179,10 +3179,10 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="H23" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I23" t="n">
         <v>1.91</v>
@@ -3191,10 +3191,10 @@
         <v>1.04</v>
       </c>
       <c r="K23" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="L23" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="M23" t="n">
         <v>3.9</v>
@@ -3203,7 +3203,7 @@
         <v>1.65</v>
       </c>
       <c r="O23" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="P23" t="n">
         <v>1.34</v>
@@ -3212,16 +3212,16 @@
         <v>3</v>
       </c>
       <c r="R23" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S23" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="T23" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="U23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V23" t="n">
         <v>12</v>
@@ -3230,16 +3230,16 @@
         <v>50</v>
       </c>
       <c r="X23" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Y23" t="n">
         <v>30</v>
       </c>
       <c r="Z23" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AA23" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AB23" t="n">
         <v>12.5</v>
@@ -3251,19 +3251,19 @@
         <v>300</v>
       </c>
       <c r="AE23" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AF23" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AG23" t="n">
         <v>8.25</v>
       </c>
       <c r="AH23" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AJ23" t="n">
         <v>21</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-30.xlsx
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H4" t="n">
         <v>3.2</v>
       </c>
       <c r="I4" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J4" t="n">
         <v>1.1</v>
@@ -930,7 +930,7 @@
         <v>1.67</v>
       </c>
       <c r="T4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U4" t="n">
         <v>15</v>
@@ -939,7 +939,7 @@
         <v>13</v>
       </c>
       <c r="W4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="X4" t="n">
         <v>34</v>
@@ -951,7 +951,7 @@
         <v>7</v>
       </c>
       <c r="AA4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB4" t="n">
         <v>19</v>
@@ -1131,13 +1131,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.88</v>
+        <v>2.02</v>
       </c>
       <c r="H6" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="I6" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="J6" t="n">
         <v>1.1</v>
@@ -1149,13 +1149,13 @@
         <v>1.42</v>
       </c>
       <c r="M6" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="N6" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O6" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="P6" t="n">
         <v>1.47</v>
@@ -1164,61 +1164,61 @@
         <v>2.32</v>
       </c>
       <c r="R6" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S6" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="T6" t="n">
         <v>5.7</v>
       </c>
       <c r="U6" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V6" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="W6" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="X6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y6" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Z6" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AA6" t="n">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="AB6" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AD6" t="n">
         <v>101</v>
       </c>
       <c r="AE6" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AF6" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AI6" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AJ6" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
@@ -1634,10 +1634,10 @@
         <v>3.75</v>
       </c>
       <c r="N10" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O10" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="P10" t="n">
         <v>1.36</v>
@@ -1857,27 +1857,27 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.92</v>
+        <v>2.52</v>
       </c>
       <c r="H12" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I12" t="n">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
       <c r="M12" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="N12" t="n">
-        <v>1.91</v>
+        <v>1.72</v>
       </c>
       <c r="O12" t="n">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
       <c r="P12" t="n">
         <v>1.4</v>
@@ -1886,61 +1886,61 @@
         <v>2.4</v>
       </c>
       <c r="R12" t="n">
-        <v>1.79</v>
+        <v>1.66</v>
       </c>
       <c r="S12" t="n">
-        <v>1.92</v>
+        <v>2.09</v>
       </c>
       <c r="T12" t="n">
-        <v>7.4</v>
+        <v>8.25</v>
       </c>
       <c r="U12" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="V12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W12" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="X12" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>37</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>200</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>16</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>21</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>50</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>350</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>23</v>
       </c>
     </row>
     <row r="13">
@@ -2002,7 +2002,7 @@
         <v>2.7</v>
       </c>
       <c r="P13" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="Q13" t="n">
         <v>4</v>
@@ -2124,7 +2124,7 @@
         <v>1.95</v>
       </c>
       <c r="P14" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q14" t="n">
         <v>3</v>
@@ -2219,55 +2219,55 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I15" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="J15" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="K15" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="L15" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="N15" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="O15" t="n">
         <v>1.47</v>
       </c>
-      <c r="M15" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="N15" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.53</v>
-      </c>
       <c r="P15" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.42</v>
+        <v>2.32</v>
       </c>
       <c r="R15" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S15" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="T15" t="n">
         <v>6</v>
       </c>
       <c r="U15" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="V15" t="n">
         <v>10.25</v>
       </c>
-      <c r="V15" t="n">
-        <v>10</v>
-      </c>
       <c r="W15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="X15" t="n">
         <v>24</v>
@@ -2276,13 +2276,13 @@
         <v>45</v>
       </c>
       <c r="Z15" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="AA15" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AB15" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AC15" t="n">
         <v>120</v>
@@ -2291,22 +2291,22 @@
         <v>800</v>
       </c>
       <c r="AE15" t="n">
-        <v>8.25</v>
+        <v>7.4</v>
       </c>
       <c r="AF15" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH15" t="n">
         <v>55</v>
       </c>
       <c r="AI15" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ15" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16">
@@ -2341,19 +2341,19 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.62</v>
+        <v>2.85</v>
       </c>
       <c r="H16" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="I16" t="n">
-        <v>2.92</v>
+        <v>2.72</v>
       </c>
       <c r="J16" t="n">
         <v>1.12</v>
       </c>
       <c r="K16" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="L16" t="n">
         <v>1.5</v>
@@ -2371,7 +2371,7 @@
         <v>1.55</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="R16" t="n">
         <v>2</v>
@@ -2380,52 +2380,52 @@
         <v>1.72</v>
       </c>
       <c r="T16" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="U16" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="V16" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="W16" t="n">
+        <v>40</v>
+      </c>
+      <c r="X16" t="n">
         <v>32</v>
-      </c>
-      <c r="X16" t="n">
-        <v>29</v>
       </c>
       <c r="Y16" t="n">
         <v>50</v>
       </c>
       <c r="Z16" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AA16" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AB16" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AD16" t="n">
         <v>101</v>
       </c>
       <c r="AE16" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="AF16" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="AH16" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AI16" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ16" t="n">
         <v>50</v>
@@ -3179,82 +3179,82 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="H23" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I23" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="J23" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K23" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L23" t="n">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="M23" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="N23" t="n">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="O23" t="n">
-        <v>2.12</v>
+        <v>2.32</v>
       </c>
       <c r="P23" t="n">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="Q23" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="R23" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="S23" t="n">
-        <v>2.25</v>
+        <v>2.42</v>
       </c>
       <c r="T23" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="U23" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="V23" t="n">
         <v>12</v>
       </c>
       <c r="W23" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="X23" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Y23" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Z23" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA23" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AB23" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AD23" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AE23" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="AF23" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AG23" t="n">
         <v>8.25</v>
@@ -3263,10 +3263,10 @@
         <v>17.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AJ23" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="24">

--- a/Jogos_da_Semana_FlashScore_2025-04-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-30.xlsx
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H4" t="n">
         <v>3.2</v>
       </c>
       <c r="I4" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J4" t="n">
         <v>1.1</v>
@@ -930,7 +930,7 @@
         <v>1.67</v>
       </c>
       <c r="T4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U4" t="n">
         <v>15</v>
@@ -939,7 +939,7 @@
         <v>13</v>
       </c>
       <c r="W4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="X4" t="n">
         <v>34</v>
@@ -951,7 +951,7 @@
         <v>7</v>
       </c>
       <c r="AA4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB4" t="n">
         <v>19</v>
@@ -1013,87 +1013,87 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="H5" t="n">
         <v>3.15</v>
       </c>
       <c r="I5" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="M5" t="n">
-        <v>2.77</v>
+        <v>2.67</v>
       </c>
       <c r="N5" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="O5" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="P5" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="R5" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="S5" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="T5" t="n">
-        <v>6.8</v>
+        <v>6.3</v>
       </c>
       <c r="U5" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="V5" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="W5" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="X5" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="Y5" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Z5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA5" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AB5" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AD5" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AE5" t="n">
         <v>9.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AG5" t="n">
         <v>12.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AI5" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AJ5" t="n">
         <v>45</v>
@@ -1317,7 +1317,9 @@
       <c r="AC7" t="n">
         <v>150</v>
       </c>
-      <c r="AD7" t="inlineStr"/>
+      <c r="AD7" t="n">
+        <v>101</v>
+      </c>
       <c r="AE7" t="n">
         <v>14.5</v>
       </c>
@@ -1616,28 +1618,28 @@
         <v>3.75</v>
       </c>
       <c r="H10" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="I10" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="J10" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K10" t="n">
         <v>13</v>
       </c>
       <c r="L10" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M10" t="n">
         <v>3.75</v>
       </c>
       <c r="N10" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="O10" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="P10" t="n">
         <v>1.36</v>
@@ -1646,19 +1648,19 @@
         <v>3</v>
       </c>
       <c r="R10" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S10" t="n">
         <v>2</v>
       </c>
       <c r="T10" t="n">
+        <v>11</v>
+      </c>
+      <c r="U10" t="n">
+        <v>19</v>
+      </c>
+      <c r="V10" t="n">
         <v>12</v>
-      </c>
-      <c r="U10" t="n">
-        <v>21</v>
-      </c>
-      <c r="V10" t="n">
-        <v>13</v>
       </c>
       <c r="W10" t="n">
         <v>41</v>
@@ -1682,19 +1684,19 @@
         <v>51</v>
       </c>
       <c r="AD10" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE10" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF10" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AG10" t="n">
         <v>8.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI10" t="n">
         <v>15</v>
@@ -1750,16 +1752,16 @@
         <v>15</v>
       </c>
       <c r="L11" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M11" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N11" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="O11" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="P11" t="n">
         <v>1.29</v>
@@ -1857,21 +1859,21 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.52</v>
+        <v>2.62</v>
       </c>
       <c r="H12" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I12" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="M12" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="N12" t="n">
         <v>1.72</v>
@@ -1889,58 +1891,58 @@
         <v>1.66</v>
       </c>
       <c r="S12" t="n">
-        <v>2.09</v>
+        <v>2.1</v>
       </c>
       <c r="T12" t="n">
         <v>8.25</v>
       </c>
       <c r="U12" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="V12" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="W12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="X12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Y12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z12" t="n">
         <v>11</v>
       </c>
       <c r="AA12" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AB12" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AC12" t="n">
         <v>37</v>
       </c>
       <c r="AD12" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AE12" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="AF12" t="n">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="AG12" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AH12" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
@@ -2219,85 +2221,85 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="H15" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="I15" t="n">
         <v>3.45</v>
       </c>
       <c r="J15" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="K15" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="L15" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="M15" t="n">
-        <v>2.42</v>
+        <v>2.3</v>
       </c>
       <c r="N15" t="n">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="O15" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="P15" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="R15" t="n">
-        <v>2.05</v>
+        <v>2.18</v>
       </c>
       <c r="S15" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="T15" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="U15" t="n">
         <v>10.5</v>
       </c>
       <c r="V15" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="W15" t="n">
         <v>26</v>
       </c>
       <c r="X15" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="Y15" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="Z15" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="AA15" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AB15" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AC15" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AD15" t="n">
         <v>800</v>
       </c>
       <c r="AE15" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AF15" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AG15" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH15" t="n">
         <v>55</v>
@@ -2306,7 +2308,7 @@
         <v>45</v>
       </c>
       <c r="AJ15" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16">
@@ -2825,14 +2827,10 @@
       <c r="I20" t="n">
         <v>29</v>
       </c>
-      <c r="J20" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K20" t="n">
-        <v>34</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="M20" t="n">
         <v>15</v>
@@ -2939,10 +2937,10 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="H21" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I21" t="n">
         <v>2.15</v>
@@ -2951,13 +2949,13 @@
         <v>1.05</v>
       </c>
       <c r="K21" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="L21" t="n">
         <v>1.26</v>
       </c>
       <c r="M21" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="N21" t="n">
         <v>1.78</v>
@@ -2966,40 +2964,40 @@
         <v>1.93</v>
       </c>
       <c r="P21" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="R21" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S21" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="T21" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="U21" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="V21" t="n">
         <v>11</v>
       </c>
       <c r="W21" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="X21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y21" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z21" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AA21" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AB21" t="n">
         <v>12.5</v>
@@ -3011,22 +3009,22 @@
         <v>350</v>
       </c>
       <c r="AE21" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG21" t="n">
         <v>8.75</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>8.5</v>
       </c>
       <c r="AH21" t="n">
         <v>21</v>
       </c>
       <c r="AI21" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AJ21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22">
@@ -3061,90 +3059,90 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="H22" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="I22" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="M22" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="N22" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="O22" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="P22" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="Q22" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="R22" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S22" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="T22" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="U22" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="V22" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="W22" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X22" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="Y22" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Z22" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA22" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AB22" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AC22" t="n">
+        <v>120</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>700</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>500</v>
+      </c>
+      <c r="AG22" t="n">
         <v>100</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>500</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>100</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>350</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>75</v>
       </c>
       <c r="AH22" t="n">
         <v>600</v>
       </c>
       <c r="AI22" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="AJ22" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23">
@@ -3179,10 +3177,10 @@
         </is>
       </c>
       <c r="G23" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H23" t="n">
         <v>3.65</v>
-      </c>
-      <c r="H23" t="n">
-        <v>3.7</v>
       </c>
       <c r="I23" t="n">
         <v>1.88</v>
@@ -3194,34 +3192,34 @@
         <v>9</v>
       </c>
       <c r="L23" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M23" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="N23" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="O23" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="P23" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Q23" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="R23" t="n">
         <v>1.5</v>
       </c>
       <c r="S23" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="T23" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="U23" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="V23" t="n">
         <v>12</v>
@@ -3230,31 +3228,31 @@
         <v>55</v>
       </c>
       <c r="X23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Y23" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Z23" t="n">
         <v>9</v>
       </c>
       <c r="AA23" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AC23" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AD23" t="n">
         <v>200</v>
       </c>
       <c r="AE23" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AF23" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AG23" t="n">
         <v>8.25</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-30.xlsx
@@ -769,19 +769,19 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H3" t="n">
         <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="J3" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L3" t="n">
         <v>1.5</v>
@@ -808,13 +808,13 @@
         <v>1.67</v>
       </c>
       <c r="T3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U3" t="n">
         <v>15</v>
       </c>
       <c r="V3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W3" t="n">
         <v>34</v>
@@ -1253,13 +1253,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="H7" t="n">
-        <v>4.05</v>
+        <v>3.95</v>
       </c>
       <c r="I7" t="n">
-        <v>6.7</v>
+        <v>6.2</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -1282,22 +1282,22 @@
         <v>2.6</v>
       </c>
       <c r="R7" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="S7" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T7" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="U7" t="n">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="V7" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="W7" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X7" t="n">
         <v>13.5</v>
@@ -1309,10 +1309,10 @@
         <v>9</v>
       </c>
       <c r="AA7" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="AB7" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AC7" t="n">
         <v>150</v>
@@ -1321,22 +1321,22 @@
         <v>101</v>
       </c>
       <c r="AE7" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH7" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AI7" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>90</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>100</v>
       </c>
     </row>
     <row r="8">
@@ -1374,7 +1374,7 @@
         <v>6.6</v>
       </c>
       <c r="H8" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I8" t="n">
         <v>1.53</v>
@@ -1383,58 +1383,58 @@
         <v>1.08</v>
       </c>
       <c r="K8" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="L8" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="M8" t="n">
-        <v>2.77</v>
+        <v>2.92</v>
       </c>
       <c r="N8" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="R8" t="n">
         <v>2.12</v>
       </c>
-      <c r="O8" t="n">
+      <c r="S8" t="n">
         <v>1.65</v>
       </c>
-      <c r="P8" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.6</v>
-      </c>
       <c r="T8" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="U8" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="W8" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="X8" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="Y8" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="Z8" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="AA8" t="n">
         <v>7.2</v>
       </c>
       <c r="AB8" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AC8" t="n">
         <v>120</v>
@@ -1446,13 +1446,13 @@
         <v>5.4</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AG8" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AH8" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AI8" t="n">
         <v>14</v>
@@ -1624,13 +1624,13 @@
         <v>1.85</v>
       </c>
       <c r="J10" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K10" t="n">
         <v>13</v>
       </c>
       <c r="L10" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M10" t="n">
         <v>3.75</v>
@@ -1648,7 +1648,7 @@
         <v>3</v>
       </c>
       <c r="R10" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S10" t="n">
         <v>2</v>
@@ -1986,22 +1986,22 @@
         <v>8.5</v>
       </c>
       <c r="J13" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L13" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="M13" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N13" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="O13" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="P13" t="n">
         <v>1.22</v>
@@ -2343,67 +2343,67 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="H16" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="I16" t="n">
         <v>2.72</v>
       </c>
       <c r="J16" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="K16" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="L16" t="n">
         <v>1.5</v>
       </c>
       <c r="M16" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="N16" t="n">
-        <v>2.47</v>
+        <v>2.42</v>
       </c>
       <c r="O16" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="P16" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="R16" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S16" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="T16" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="U16" t="n">
         <v>14</v>
       </c>
       <c r="V16" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="W16" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="X16" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y16" t="n">
         <v>50</v>
       </c>
       <c r="Z16" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="AA16" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AB16" t="n">
         <v>17.5</v>
@@ -2412,7 +2412,7 @@
         <v>110</v>
       </c>
       <c r="AD16" t="n">
-        <v>101</v>
+        <v>1250</v>
       </c>
       <c r="AE16" t="n">
         <v>6.8</v>
@@ -2424,7 +2424,7 @@
         <v>11</v>
       </c>
       <c r="AH16" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AI16" t="n">
         <v>30</v>
@@ -2827,19 +2827,23 @@
       <c r="I20" t="n">
         <v>29</v>
       </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K20" t="n">
+        <v>34</v>
+      </c>
       <c r="L20" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="M20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N20" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="O20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="P20" t="n">
         <v>1.1</v>
@@ -2848,22 +2852,22 @@
         <v>7</v>
       </c>
       <c r="R20" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S20" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T20" t="n">
         <v>21</v>
       </c>
       <c r="U20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V20" t="n">
         <v>15</v>
       </c>
       <c r="W20" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X20" t="n">
         <v>12</v>
@@ -2875,7 +2879,7 @@
         <v>34</v>
       </c>
       <c r="AA20" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB20" t="n">
         <v>34</v>
@@ -2884,7 +2888,7 @@
         <v>67</v>
       </c>
       <c r="AD20" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE20" t="n">
         <v>67</v>
@@ -2902,7 +2906,7 @@
         <v>151</v>
       </c>
       <c r="AJ20" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21">
@@ -3062,10 +3066,10 @@
         <v>1.08</v>
       </c>
       <c r="H22" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="I22" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -3073,64 +3077,64 @@
         <v>1.06</v>
       </c>
       <c r="M22" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="N22" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="O22" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P22" t="n">
         <v>1.15</v>
       </c>
       <c r="Q22" t="n">
-        <v>4.65</v>
+        <v>4.7</v>
       </c>
       <c r="R22" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="S22" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="T22" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="U22" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V22" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="W22" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="X22" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="Y22" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z22" t="n">
         <v>30</v>
       </c>
       <c r="AA22" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AB22" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AC22" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AD22" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AE22" t="n">
         <v>120</v>
       </c>
       <c r="AF22" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AG22" t="n">
         <v>100</v>
@@ -3139,10 +3143,10 @@
         <v>600</v>
       </c>
       <c r="AI22" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AJ22" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23">
@@ -3177,7 +3181,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="H23" t="n">
         <v>3.65</v>
@@ -3186,22 +3190,22 @@
         <v>1.88</v>
       </c>
       <c r="J23" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K23" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="L23" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="M23" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="N23" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="O23" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="P23" t="n">
         <v>1.3</v>
@@ -3210,16 +3214,16 @@
         <v>3.2</v>
       </c>
       <c r="R23" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="S23" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="T23" t="n">
         <v>14.5</v>
       </c>
       <c r="U23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="V23" t="n">
         <v>12</v>
@@ -3234,10 +3238,10 @@
         <v>28</v>
       </c>
       <c r="Z23" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AA23" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AB23" t="n">
         <v>11.75</v>
@@ -3246,13 +3250,13 @@
         <v>40</v>
       </c>
       <c r="AD23" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AE23" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AF23" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AG23" t="n">
         <v>8.25</v>
@@ -3261,10 +3265,10 @@
         <v>17.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AJ23" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
@@ -3299,88 +3303,88 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H24" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="I24" t="n">
-        <v>4.85</v>
+        <v>5</v>
       </c>
       <c r="J24" t="n">
         <v>1.03</v>
       </c>
       <c r="K24" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="L24" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="M24" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="N24" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="O24" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="R24" t="n">
         <v>1.47</v>
       </c>
-      <c r="O24" t="n">
+      <c r="S24" t="n">
         <v>2.5</v>
       </c>
-      <c r="P24" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S24" t="n">
-        <v>2.35</v>
-      </c>
       <c r="T24" t="n">
-        <v>10.25</v>
+        <v>11.25</v>
       </c>
       <c r="U24" t="n">
-        <v>9.75</v>
+        <v>10.5</v>
       </c>
       <c r="V24" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="W24" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="X24" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="Y24" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AB24" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AD24" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AE24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF24" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG24" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AH24" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AI24" t="n">
         <v>40</v>
@@ -3421,52 +3425,52 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="H25" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I25" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="J25" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K25" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="L25" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="M25" t="n">
-        <v>4.45</v>
+        <v>4.25</v>
       </c>
       <c r="N25" t="n">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="O25" t="n">
-        <v>2.37</v>
+        <v>2.25</v>
       </c>
       <c r="P25" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="R25" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S25" t="n">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="T25" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="U25" t="n">
         <v>30</v>
       </c>
       <c r="V25" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="W25" t="n">
         <v>75</v>
@@ -3478,25 +3482,25 @@
         <v>30</v>
       </c>
       <c r="Z25" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AA25" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="AB25" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AC25" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AD25" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AE25" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AF25" t="n">
         <v>10</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>10.25</v>
       </c>
       <c r="AG25" t="n">
         <v>8</v>
@@ -3505,10 +3509,10 @@
         <v>15.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AJ25" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="26">

--- a/Jogos_da_Semana_FlashScore_2025-04-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-30.xlsx
@@ -1131,13 +1131,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="H6" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="I6" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="J6" t="n">
         <v>1.1</v>
@@ -1146,10 +1146,10 @@
         <v>5.8</v>
       </c>
       <c r="L6" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="M6" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="N6" t="n">
         <v>2.25</v>
@@ -1170,25 +1170,25 @@
         <v>1.7</v>
       </c>
       <c r="T6" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="U6" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="V6" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="W6" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="X6" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Y6" t="n">
         <v>37</v>
       </c>
       <c r="Z6" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AA6" t="n">
         <v>5.8</v>
@@ -1203,16 +1203,16 @@
         <v>101</v>
       </c>
       <c r="AE6" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AF6" t="n">
         <v>20</v>
       </c>
       <c r="AG6" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH6" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AI6" t="n">
         <v>40</v>
@@ -1267,7 +1267,7 @@
         <v>1.33</v>
       </c>
       <c r="M7" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="N7" t="n">
         <v>1.98</v>
@@ -1291,7 +1291,7 @@
         <v>5.6</v>
       </c>
       <c r="U7" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="V7" t="n">
         <v>8.5</v>
@@ -1324,7 +1324,7 @@
         <v>13.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG7" t="n">
         <v>21</v>
@@ -1624,10 +1624,10 @@
         <v>1.85</v>
       </c>
       <c r="J10" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K10" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L10" t="n">
         <v>1.25</v>
@@ -1636,10 +1636,10 @@
         <v>3.75</v>
       </c>
       <c r="N10" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="O10" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="P10" t="n">
         <v>1.36</v>
@@ -1888,10 +1888,10 @@
         <v>2.4</v>
       </c>
       <c r="R12" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="S12" t="n">
-        <v>2.1</v>
+        <v>2.11</v>
       </c>
       <c r="T12" t="n">
         <v>8.25</v>
@@ -1980,16 +1980,16 @@
         <v>1.27</v>
       </c>
       <c r="H13" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="I13" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="J13" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L13" t="n">
         <v>1.11</v>
@@ -2004,10 +2004,10 @@
         <v>2.88</v>
       </c>
       <c r="P13" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="Q13" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="R13" t="n">
         <v>1.8</v>
@@ -2019,7 +2019,7 @@
         <v>10</v>
       </c>
       <c r="U13" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V13" t="n">
         <v>9</v>
@@ -2031,7 +2031,7 @@
         <v>10</v>
       </c>
       <c r="Y13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z13" t="n">
         <v>21</v>
@@ -2221,94 +2221,94 @@
         </is>
       </c>
       <c r="G15" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="N15" t="n">
         <v>2.32</v>
       </c>
-      <c r="H15" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="I15" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="K15" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="L15" t="n">
+      <c r="O15" t="n">
         <v>1.57</v>
       </c>
-      <c r="M15" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="N15" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.42</v>
-      </c>
       <c r="P15" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.22</v>
+        <v>2.47</v>
       </c>
       <c r="R15" t="n">
-        <v>2.18</v>
+        <v>1.95</v>
       </c>
       <c r="S15" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="T15" t="n">
-        <v>5.7</v>
+        <v>6.1</v>
       </c>
       <c r="U15" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="V15" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="W15" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="X15" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="Y15" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="Z15" t="n">
-        <v>5.3</v>
+        <v>6.2</v>
       </c>
       <c r="AA15" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AB15" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="AD15" t="n">
-        <v>800</v>
+        <v>1250</v>
       </c>
       <c r="AE15" t="n">
-        <v>7.2</v>
+        <v>8.5</v>
       </c>
       <c r="AF15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG15" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AI15" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AJ15" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16">
@@ -3425,10 +3425,10 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>4.35</v>
+        <v>4.3</v>
       </c>
       <c r="H25" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I25" t="n">
         <v>1.75</v>
@@ -3440,34 +3440,34 @@
         <v>8.75</v>
       </c>
       <c r="L25" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="M25" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="N25" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="O25" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="P25" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="R25" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="S25" t="n">
-        <v>2.32</v>
+        <v>2.37</v>
       </c>
       <c r="T25" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="U25" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="V25" t="n">
         <v>14</v>
@@ -3476,10 +3476,10 @@
         <v>75</v>
       </c>
       <c r="X25" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y25" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z25" t="n">
         <v>8.75</v>
@@ -3497,22 +3497,22 @@
         <v>250</v>
       </c>
       <c r="AE25" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="AF25" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="AG25" t="n">
         <v>8</v>
       </c>
       <c r="AH25" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AI25" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AJ25" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="26">
